--- a/biology/Zoologie/Cyrtodactylus_seribuatensis/Cyrtodactylus_seribuatensis.xlsx
+++ b/biology/Zoologie/Cyrtodactylus_seribuatensis/Cyrtodactylus_seribuatensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtodactylus seribuatensis est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtodactylus seribuatensis est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'archipel de Seribuat en Malaisie[1]. Elle se rencontre sur Seribuat, sur Sembilang, sur Pulau Nangka Kecil, sur Pulau Mentigi, sur Pulau Sibu, sur Pulau Sibu Tengah et sur Pulau Lima Besar[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'archipel de Seribuat en Malaisie. Elle se rencontre sur Seribuat, sur Sembilang, sur Pulau Nangka Kecil, sur Pulau Mentigi, sur Pulau Sibu, sur Pulau Sibu Tengah et sur Pulau Lima Besar.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de seribuat et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Youmans &amp; Grismer, 2006 : A new species of Cyrtodactylus (Reptilia: Squamata: Gekkonidae) from the Seribuat Archipelago, West Malaysia. Herpetological Natural History, vol. 10, n. 1, p. 61-70.</t>
         </is>
